--- a/AWS_QUESTIONS.xlsx
+++ b/AWS_QUESTIONS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6863AE88-EBFC-4AE9-98AD-B309FFFD531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F9285B-E117-41D5-897F-CC9DECA11A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
   <si>
     <t>Question</t>
   </si>
@@ -146,6 +146,495 @@
 Reference:
 https://aws.amazon.com/efs/
 </t>
+  </si>
+  <si>
+    <t>Which of the following is the MOST cost-effective option to purchase an EC2 Reserved Instance?</t>
+  </si>
+  <si>
+    <t>No upfront payment option with standard 1-year term</t>
+  </si>
+  <si>
+    <t>Partial upfront payment option with standard 3-years term</t>
+  </si>
+  <si>
+    <t>No upfront payment option with standard 3-years term</t>
+  </si>
+  <si>
+    <t>All upfront payment option with standard 1-year term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can use Amazon EC2 Reserved Instances to reserve capacity and receive a discount on your instance usage compared to running On-Demand instances. The discounted usage price is reserved for the duration of your contract, allowing you to predict compute costs over the term of the Reserved Instance.
+So the percentage savings for each option is as follows:
+"No upfront payment option with the standard 1-year term" - 36%
+"All upfront payment option with the standard 1-year term" - 40%
+"No upfront payment option with the standard 3-years term" - 56%
+"Partial upfront payment option with the standard 3-years term" - 59%
+Exam Alert:
+For the exam, there is no need to memorize these savings numbers. All you need to remember is that a 3 years term would always be more cost-effective than a 1-year term. Then within a term, "all upfront" is better than "partial upfront" which in turn is better than "no upfront" from a cost savings perspective.
+Incorrect options:
+No upfront payment option with standard 1-year term
+No upfront payment option with standard 1-year term
+No upfront payment option with standard 3-years term
+These three options contradict the details provided earlier in the explanation, so these options are incorrect.
+Reference:
+https://d0.awsstatic.com/whitepapers/aws_pricing_overview.pdf
+</t>
+  </si>
+  <si>
+    <t>A multi-national company has just moved its infrastructure from its on-premises data center to AWS Cloud. As part of the shared responsibility model, AWS is responsible for which of the following?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service and Communications Protection or Zone Security </t>
+  </si>
+  <si>
+    <t>Configuring customer applications</t>
+  </si>
+  <si>
+    <t>Physical and Environmental controls</t>
+  </si>
+  <si>
+    <t>Patching guest OS</t>
+  </si>
+  <si>
+    <t>Correct option:
+Physical and Environmental controls
+As part of the shared responsibility model, Physical and Environmental controls are part of the inherited controls and hence these are the responsibility of AWS.
+Incorrect options:
+Patching guest OS
+Configuring customer applications
+The customers must provide their own control implementation within their use of AWS services. Therefore, the customers are responsible for patching their guest OS as well as for configuring their applications.
+Service and Communications Protection or Zone Security - Customers are responsible for Service and Communications Protection or Zone Security which may require the customers to route or zone data within specific security environments.</t>
+  </si>
+  <si>
+    <t>A startup wants to provision an EC2 instance for the lowest possible cost for a long-term duration but needs to make sure that the instance would never be interrupted. As a Cloud Practitioner, which of the following options would you recommend?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved Instance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicated Host </t>
+  </si>
+  <si>
+    <t>Spot Instance</t>
+  </si>
+  <si>
+    <t>On-Demand Instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct Answer
+Reserved Instance - Reserved Instances provide you with significant savings (up to 75%) on your Amazon EC2 costs compared to On-Demand Instance pricing. Reserved Instances are not physical instances, but rather a billing discount applied to the use of On-Demand Instances in your account. You can purchase a Reserved Instance for a one-year or three-year commitment, with the three-year commitment offering a bigger discount. Reserved instances cannot be interrupted. So this is the correct option.
+Incorrect options:
+On-Demand Instance - An On-Demand Instance is an instance that you use on-demand. You have full control over its lifecycle — you decide when to launch, stop, hibernate, start, reboot, or terminate it. There is no long-term commitment required when you purchase On-Demand Instances. There is no upfront payment and you pay only for the seconds that your On-Demand Instances are running. The price per second for running an On-Demand Instance is fixed. On-demand instances cannot be interrupted. However, On-demand instances are not as cost-effective as Reserved instances, so this option is not correct.
+Spot Instance - A Spot Instance is an unused EC2 instance that is available for less than the On-Demand price. Because Spot Instances enable you to request unused EC2 instances at steep discounts (up to 90%), you can lower your Amazon EC2 costs significantly. Spot Instances are well-suited for data analysis, batch jobs, background processing, and optional tasks. These can be terminated at short notice, so these are not suitable for critical workloads that need to run at a specific point in time. So this option is not correct for the given use-case.
+Dedicated Host - Amazon EC2 Dedicated Hosts allow you to use your eligible software licenses from vendors such as Microsoft and Oracle on Amazon EC2 so that you get the flexibility and cost-effectiveness of using your licenses, but with the resiliency, simplicity, and elasticity of AWS. An Amazon EC2 Dedicated Host is a physical server fully dedicated for your use, so you can help address corporate compliance requirement. They're not cost-efficient compared to On-Demand instances. So this option is not correct.
+Reference:
+https://aws.amazon.com/ec2/pricing/
+</t>
+  </si>
+  <si>
+    <t>Which AWS Support plan provides architectural guidance contextual to your specific use-cases?</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Business - AWS recommends Business Support if you have production workloads on AWS and want 24x7 phone, email and chat access to technical support and architectural guidance in the context of your specific use-cases. You get full access to AWS Trusted Advisor Best Practice Checks. You also get access to Infrastructure Event Management for an additional fee.
+Incorrect options:
+Developer - AWS recommends Developer Support if you are testing or doing early development on AWS and want the ability to get email-based technical support during business hours as well as general architectural guidance as you build and test. You do not get access to Infrastructure Event Management with this plan. This plan only supports general architectural guidance.
+Basic - The basic plan only provides access to the following:
+Customer Service &amp; Communities - 24x7 access to customer service, documentation, whitepapers, and support forums. AWS Trusted Advisor - Access to the 7 core Trusted Advisor checks and guidance to provision your resources following best practices to increase performance and improve security. AWS Personal Health Dashboard - A personalized view of the health of AWS services, and alerts when your resources are impacted. This plan does not support any architectural guidance.
+Enterprise - AWS Enterprise Support provides customers with concierge-like service where the main focus is helping the customer achieve their outcomes and find success in the cloud. With Enterprise Support, you get 24x7 technical support from high-quality engineers, tools and technology to automatically manage the health of your environment, consultative review and guidance based on your applications, and a designated Technical Account Manager (TAM) to coordinate access to proactive/preventative programs and AWS subject matter experts. This plan supports architectural guidance contextual to your application.
+Reference:
+https://aws.amazon.com/premiumsupport/plans/</t>
+  </si>
+  <si>
+    <t>Which of the following is an AWS database service?</t>
+  </si>
+  <si>
+    <t>Glue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Migration Service </t>
+  </si>
+  <si>
+    <t>Storage Gateway</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Redshift - Amazon Redshift is a fully-managed petabyte-scale cloud-based data warehouse product designed for large scale data set storage and analysis.
+Incorrect options:
+Glue - AWS Glue is a fully managed extract, transform, and load (ETL) service that makes it easy for customers to prepare and load their data for analytics.
+Storage Gateway - AWS Storage Gateway is a hybrid cloud storage service that connects your existing on-premises environments with the AWS Cloud. Customers use Storage Gateway to simplify storage management and reduce costs for key hybrid cloud storage use cases.
+Database Migration Service - AWS Database Migration Service helps you migrate databases to AWS quickly and securely. The source database remains fully operational during the migration, minimizing downtime to applications that rely on the database. The AWS Database Migration Service can migrate your data to and from the most widely used commercial and open-source databases.
+References:
+https://aws.amazon.com/redshift/
+https://aws.amazon.com/dms/</t>
+  </si>
+  <si>
+    <t>The DevOps team at an IT company is moving 500 GB of data from an EC2 instance to an S3 bucket in the same region. Which of the following scenario captures the correct charges for this data transfer?</t>
+  </si>
+  <si>
+    <t>The company would only be charged for the inbound data transfer into the S3 bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The company would only be charged for the outbound data transfer from EC2 instance
+</t>
+  </si>
+  <si>
+    <t>The company would not be charged for this data transfer</t>
+  </si>
+  <si>
+    <t>The company would be charged for both the outbound data transfer from EC2 instance as well as the inbound data transfer into the S3 bucket</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+The company would not be charged for this data transfer
+There are three fundamental drivers of cost with AWS: compute, storage, and outbound data transfer. In most cases, there is no charge for inbound data transfer or data transfer between other AWS services within the same region. Outbound data transfer is aggregated across services and then charged at the outbound data transfer rate.
+Per AWS pricing, data transfer between S3 and EC2 instances within the same region is not charged, so there would be no data transfer charge for moving 500 GB of data from an EC2 instance to an S3 bucket in the same region.
+Incorrect options:
+The company would only be charged for the outbound data transfer from EC2 instance
+The company would only be charged for the inbound data transfer into the S3 bucket
+The company would be charged for both the outbound data transfer from EC2 instance as well as the inbound data transfer into the S3 bucket
+These three options contradict the details provided earlier in the explanation, so these options are incorrect.
+Reference:
+https://aws.amazon.com/s3/pricing/
+https://d0.awsstatic.com/whitepapers/aws_pricing_overview.pdf</t>
+  </si>
+  <si>
+    <t>Which of the following AWS Support plans provides access to online training with self-paced labs?</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Enterprise
+AWS offers three different support plans to cater to each of its customers - Developer, Business, and Enterprise Support plans. A basic support plan is included for all AWS customers.
+AWS Enterprise Support provides customers with concierge-like service where the main focus is on helping the customer achieve their outcomes and find success in the cloud. With Enterprise Support, you get access to online training with self-paced labs, 24x7 technical support from high-quality engineers, tools and technology to automatically manage the health of your environment, consultative architectural guidance, a designated Technical Account Manager (TAM) to coordinate access to proactive/preventative programs and AWS subject matter experts.
+Incorrect options:
+Developer - AWS recommends Developer Support if you are testing or doing early development on AWS and want the ability to get technical support during business hours as well as general architectural guidance as you build and test.
+Business - AWS recommends Business Support if you have production workloads on AWS and want 24x7 access to technical support and architectural guidance in the context of your specific use-cases.
+Basic - A basic support plan is included for all AWS customers.
+None of these three support plans provide access to online training with self-paced labs.
+References:
+https://aws.amazon.com/premiumsupport/plans/
+https://aws.amazon.com/premiumsupport/plans/enterprise/</t>
+  </si>
+  <si>
+    <t>An e-commerce company has deployed an RDS database in a single Availability Zone. The engineering team wants to ensure that in case of an AZ outage, the database should continue working on the same endpoint without any manual administrative intervention. Which of the following solutions can address this use-case?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy the database via Elastic Beanstalk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the database in RDS read replica mode with automatic failover to the standby </t>
+  </si>
+  <si>
+    <t>Configure the database in RDS Multi-AZ deployment with automatic failover to the standby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provision the database via CloudFormation </t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Configure the database in RDS Multi-AZ deployment with automatic failover to the standby
+When you provision a Multi-AZ DB Instance, Amazon RDS automatically creates a primary DB Instance and synchronously replicates the data to a standby instance in a different Availability Zone (AZ). In case of an infrastructure failure, Amazon RDS performs an automatic failover to the standby (or to a read replica in the case of Amazon Aurora), so that you can resume database operations as soon as the failover is complete. Since the endpoint for your DB Instance remains the same after a failover, your application can resume database operation without the need for manual administrative intervention.
+Incorrect options:
+Deploy the database via Elastic Beanstalk - You cannot deploy only a database via Elastic Beanstalk as its meant for automatic application deployment when you upload your code. Then Elastic Beanstalk automatically handles the deployment, from capacity provisioning, load balancing, auto-scaling to application health monitoring. Hence this option is incorrect.
+Configure the database in RDS read replica mode with automatic failover to the standby - For RDS, Read replicas allow you to create read-only copies that are synchronized with your master database. There is no standby available while using read replicas. In case of infrastructure failure, you have to manually promote the read replica to be its own standalone DB Instance, which means that the database endpoint would change. Therefore, this option is incorrect.
+Provision the database via CloudFormation - You can provision the database via CloudFront for sure, however, it does not provide any automatic recovery in case of a disaster.
+References:
+https://aws.amazon.com/rds/features/multi-az/</t>
+  </si>
+  <si>
+    <t>A company wants to have control over creating and using its own keys for encryption on AWS services. Which of the following can be used for this use-case?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrets Manager </t>
+  </si>
+  <si>
+    <t>Customer Managed CMK</t>
+  </si>
+  <si>
+    <t>AWS Owned CMK</t>
+  </si>
+  <si>
+    <t>AWS Managed CMK</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Customer Managed CMK
+A customer master key (CMK) is a logical representation of a master key. The CMK includes metadata, such as the key ID, creation date, description, and key state. The CMK also contains the key material used to encrypt and decrypt data. These are created and managed by the AWS customer. Access to these can be controlled using the AWS IAM service.
+Incorrect options:
+Secrets Manager - AWS Secrets Manager helps you protect secrets needed to access your applications, services, and IT resources. The service enables you to easily rotate, manage, and retrieve database credentials, API keys, and other secrets throughout their lifecycle. You cannot use Secrets Manager for creating and using your own keys for encryption on AWS services.
+AWS Managed CMK - AWS managed CMKs are CMKs in your account that are created, managed, and used on your behalf by an AWS service that is integrated with AWS KMS.
+AWS Owned CMK - AWS owned CMKs are a collection of CMKs that an AWS service owns and manages for use in multiple AWS accounts. AWS owned CMKs are not in your AWS account. You cannot view or manage these CMKs.
+Reference:
+https://docs.aws.amazon.com/kms/latest/developerguide/concepts.html#master_keys</t>
+  </si>
+  <si>
+    <t>A company wants to improve the resiliency of its flagship application so it wants to move from its traditional database system to a managed AWS database service to support active-active configuration in both the East and West US AWS regions. The active-active configuration with cross-region support is the prime criteria for any database solution that the company considers.
+Which AWS database service is the right fit for this requirement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazon DynamoDB with global tables</t>
+  </si>
+  <si>
+    <t>Amazon Relational Database Service (Amazon RDS) for MYSQL</t>
+  </si>
+  <si>
+    <t>Amazon Aurora with multi-master cluster</t>
+  </si>
+  <si>
+    <t>Amazon DynamoDB with DynamoDB Accelerator</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option: Amazon DynamoDB with global tables
+Amazon DynamoDB is a fully managed, serverless, key-value NoSQL database designed to run high-performance applications at any scale. DynamoDB offers built-in security, continuous backups, automated multi-region replication, in-memory caching, and data export tools.
+DynamoDB global tables replicate data automatically across your choice of AWS Regions and automatically scale capacity to accommodate your workloads. With global tables, your globally distributed applications can access data locally in the selected regions to get single-digit millisecond read and write performance. DynamoDB offers active-active cross-region support that is needed for the company.
+Incorrect options:
+Amazon DynamoDB with DynamoDB Accelerator - DynamoDB Accelerator (DAX) is an in-memory cache that delivers fast read performance for your tables at scale by enabling you to use a fully managed in-memory cache. Using DAX, you can improve the read performance of your DynamoDB tables by up to 10 times—taking the time required for reads from milliseconds to microseconds, even at millions of requests per second. DAX does not offer active-active cross-Region configuration.
+Amazon Aurora with multi-master cluster - Amazon Aurora (Aurora) is a fully managed relational database engine that's compatible with MySQL and PostgreSQL. With some workloads, Aurora can deliver up to five times the throughput of MySQL and up to three times the throughput of PostgreSQL without requiring changes to most of your existing applications. In a multi-master cluster, all DB instances have read/write capability. Currently, all DB instances in a multi-master cluster must be in the same AWS Region. You can't enable cross-Region replicas from multi-master clusters.
+Amazon Relational Database Service (Amazon RDS) for MYSQL - Amazon Relational Database Service (Amazon RDS) makes it easy to set up, operate, and scale a relational database in the cloud. It provides cost-efficient and resizable capacity while automating time-consuming administration tasks such as hardware provisioning, database setup, patching and backups. It frees you to focus on your applications so you can give them the fast performance, high availability, security and compatibility they need. RDS does not support active-active configuration with cross-region support.
+References:
+https://aws.amazon.com/dynamodb/features/
+https://docs.aws.amazon.com/AmazonRDS/latest/AuroraUserGuide/aurora-multi-master.html</t>
+  </si>
+  <si>
+    <t>An intern at an IT company provisioned a Linux based On-demand EC2 instance with per-second billing but terminated it within 30 seconds as he wanted to provision another instance type. What is the duration for which the instance would be charged?</t>
+  </si>
+  <si>
+    <t>600 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 seconds </t>
+  </si>
+  <si>
+    <t>60 seconds</t>
+  </si>
+  <si>
+    <t>300 seconds</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+60 seconds - There is a one-minute minimum charge for Linux based EC2 instances, so this is the correct option.
+Incorrect options:
+30 seconds
+300 seconds
+600 seconds
+These three options contradict the details provided earlier in the explanation, so these options are incorrect.
+Reference:
+https://aws.amazon.com/blogs/aws/new-per-second-billing-for-ec2-instances-and-ebs-volumes/</t>
+  </si>
+  <si>
+    <t>A silicon valley based healthcare startup stores anonymized patient health data on Amazon S3. The CTO further wants to ensure that any sensitive data on S3 is discovered and identified to prevent any sensitive data leaks. As a Cloud Practitioner, which AWS service would you recommend addressing this use-case?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Secrets Manager </t>
+  </si>
+  <si>
+    <t>AWS Glue</t>
+  </si>
+  <si>
+    <t>Amazon Polly</t>
+  </si>
+  <si>
+    <t>Amazon Macie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanation
+Correct option:
+Amazon Macie - Amazon Macie is a fully managed data security and data privacy service that uses machine learning and pattern matching to discover and protect your sensitive data in AWS. Macie automatically provides an inventory of Amazon S3 buckets including a list of unencrypted buckets, publicly accessible buckets, and buckets shared with AWS accounts outside those you have defined in AWS Organizations. Then, Macie applies machine learning and pattern matching techniques to the buckets you select to identify and alert you to sensitive data, such as personally identifiable information (PII).
+Incorrect options:
+AWS Glue - AWS Glue is a fully managed extract, transform, and load (ETL) service that makes it easy for customers to prepare and load their data for analytics. AWS Glue job is meant to be used for batch ETL data processing. It cannot be used to discover and protect your sensitive data in AWS.
+Amazon Polly - Amazon Polly is a service that turns text into lifelike speech, allowing you to create applications that talk, and build entirely new categories of speech-enabled products. Polly's Text-to-Speech (TTS) service uses advanced deep learning technologies to synthesize natural sounding human speech. It cannot be used to discover and protect your sensitive data in AWS.
+AWS Secrets Manager - AWS Secrets Manager helps you protect secrets needed to access your applications, services, and IT resources. The service enables you to easily rotate, manage, and retrieve database credentials, API keys, and other secrets throughout their lifecycle. Users and applications retrieve secrets with a call to Secrets Manager APIs, eliminating the need to hardcode sensitive information in plain text. It cannot be used to discover and protect your sensitive data in AWS.
+Reference:
+https://aws.amazon.com/macie/
+</t>
+  </si>
+  <si>
+    <t>A medical research startup wants to understand the compliance of AWS services concerning HIPAA guidelines. Which AWS service can be used to review the HIPAA compliance and governance-related documents on AWS?</t>
+  </si>
+  <si>
+    <t>AWS Artifact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Systems Manager </t>
+  </si>
+  <si>
+    <t>AWS Trusted Advisor</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+AWS Artifact
+AWS Artifact is your go-to, central resource for compliance-related information that matters to your organization. It provides on-demand access to AWS’ security and compliance reports and select online agreements. Reports available in AWS Artifact include our Service Organization Control (SOC) reports, Payment Card Industry (PCI) reports, and certifications from accreditation bodies across geographies and compliance verticals that validate the implementation and operating effectiveness of AWS security controls. Different types of agreements are available in AWS Artifact Agreements to address the needs of customers subject to specific regulations. For example, the Business Associate Addendum (BAA) is available for customers that need to comply with the Health Insurance Portability and Accountability Act (HIPAA). It is not a service, it's a no-cost, self-service portal for on-demand access to AWS’ compliance reports.
+Incorrect options:
+AWS Trusted Advisor - AWS Trusted Advisor is an online tool that provides you real-time guidance to help you provision your resources following AWS best practices. Whether establishing new workflows, developing applications, or as part of ongoing improvement, recommendations provided by Trusted Advisor regularly help keep your solutions provisioned optimally.
+AWS Secrets Manager - AWS Secrets Manager helps you protect secrets needed to access your applications, services, and IT resources. The service enables you to easily rotate, manage, and retrieve database credentials, API keys, and other secrets throughout their lifecycle. Users and applications retrieve secrets with a call to Secrets Manager APIs, eliminating the need to hardcode sensitive information in plain text.
+AWS Systems Manager - AWS Systems Manager gives you visibility and control of your infrastructure on AWS. Systems Manager provides a unified user interface so you can view operational data from multiple AWS services and allows you to automate operational tasks across your AWS resources. With Systems Manager, you can group resources, like Amazon EC2 instances, Amazon S3 buckets, or Amazon RDS instances, by application, view operational data for monitoring and troubleshooting, and take action on your groups of resources.
+Reference:
+https://aws.amazon.com/artifact/</t>
+  </si>
+  <si>
+    <t>Which of the following is an INCORRECT statement about Scaling, a design principle of Reliability pillar of the AWS Well-Architected Framework.</t>
+  </si>
+  <si>
+    <t>Fault tolerance is achieved by Vertical Scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical Scaling implies you scale by adding more power (CPU, RAM) to your existing machine/node </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault tolerance is achieved by Horizontal scaling </t>
+  </si>
+  <si>
+    <t>Horizontal Scaling implies you scale by adding more instances to your existing pool of resources</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Fault tolerance is achieved by Vertical Scaling
+A "vertically scalable" system, is constrained to be running its processes on only one computer. In such systems, the only way to increase performance is to add more resources into one computer in the form of faster (or more) CPUs, memory or storage. Fault tolerance is not possible on vertically scalable systems since a single instance is prone to failure.
+Incorrect options:
+Vertical Scaling implies you scale by adding more power (CPU, RAM) to your existing machine/node - A "vertically scalable" system runs on a single instance. Adding power is only possible through the addition of resources in the form of CPU, RAM, or storage to enhance performance.
+Horizontal Scaling implies you scale by adding more instances to your existing pool of resources - A "horizontally scalable" system is one that can increase capacity by adding more computers to the system. Horizontally scalable systems are oftentimes able to outperform vertically scalable systems by enabling parallel execution of workloads and distributing those across many different computers.
+Fault tolerance is achieved by Horizontal scaling - Horizontal scaling adds more instances to its existing pool to scale. This implies, there is no single point of failure. If an instance is down, the workload is taken up by other healthy instances. Distributed systems are an example of horizontal scaling.
+Reference:
+https://wa.aws.amazon.com/wat.concept.horizontal-scaling.en.html</t>
+  </si>
+  <si>
+    <t>A company needs a storage solution for a project wherein the data is accessed less frequently but needs rapid access when required. Which S3 storage class is the MOST cost-effective for the given use-case?</t>
+  </si>
+  <si>
+    <t>Amazon S3 Intelligent-Tiering (S3 Intelligent-Tiering) -</t>
+  </si>
+  <si>
+    <t>Amazon S3 Standard-Infrequent Access (S3 Standard-IA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon S3 Glacier (S3 Glacier) </t>
+  </si>
+  <si>
+    <t>Amazon S3 Standard</t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Amazon S3 Standard-Infrequent Access (S3 Standard-IA)
+S3 Standard-IA is for data that is accessed less frequently, but requires rapid access when needed. S3 Standard-IA offers the high durability, high throughput, and low latency of S3 Standard, with a low per GB storage price and per GB retrieval fee. This combination of low cost and high performance make S3 Standard-IA ideal for long-term storage, backups, and as a data store for disaster recovery files.
+Incorrect options:
+Amazon S3 Standard - The S3 Standard offers high durability, availability, and performance object storage for frequently accessed data. S3 standard would turn out to be costlier than S3 Standard-IA for the given use-case, so this option is not correct.
+Amazon S3 Intelligent-Tiering (S3 Intelligent-Tiering) - The S3 Intelligent-Tiering storage class is designed to optimize costs by automatically moving data to the most cost-effective access tier, without performance impact or operational overhead. It works by storing objects in two access tiers: one tier that is optimized for frequent access and another lower-cost tier that is optimized for infrequent access. S3 Intelligent-Tiering would turn out to be costlier than S3 Standard-IA for the given use-case, so this option is not correct.
+Amazon S3 Glacier (S3 Glacier) - Amazon S3 Glacier is a secure, durable, and extremely low-cost Amazon S3 cloud storage class for data archiving and long-term backup. It is designed to deliver 99.999999999% durability, and provide comprehensive security and compliance capabilities that can help meet even the most stringent regulatory requirements. S3 Glacier does not support rapid data retrieval, so this option is ruled out.
+Reference:
+https://aws.amazon.com/s3/storage-classes/</t>
+  </si>
+  <si>
+    <t>A web application stores all of its data on Amazon S3 buckets. A client has mandated that data be encrypted before sending it to Amazon S3.
+Which of the following is the right technique for encrypting data as needed by the customer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable server-side encryption with KMS keys stored in AWS Key Management Service (SSE-KMS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable server-side encryption with Amazon S3-Managed Keys (SSE-S3) </t>
+  </si>
+  <si>
+    <t>Enable client-side encryption using AWS encryption SDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encryption is enabled by default for all the objects written to Amazon S3. Additional configuration is not required </t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+Enable client-side encryption using AWS encryption SDK
+The act of encrypting data before sending it to Amazon S3 is termed as client-side encryption. The AWS encryption SDK is a client-side encryption library that is separate from the language–specific SDKs. You can use this encryption library to more easily implement encryption best practices in Amazon S3. Unlike the Amazon S3 encryption clients in the language–specific AWS SDKs, the AWS encryption SDK is not tied to Amazon S3 and can be used to encrypt or decrypt data to be stored anywhere.
+Incorrect options:
+Enable server-side encryption with Amazon S3-Managed Keys (SSE-S3) - When you use server-side encryption with Amazon S3-Managed Keys (SSE-S3), each object is encrypted with a unique key. As an additional safeguard, it encrypts the key itself with a root key that it regularly rotates.
+Enable server-side encryption with KMS keys stored in AWS Key Management Service (SSE-KMS) - server-side encryption with AWS KMS keys (SSE-KMS) is similar to SSE-S3, but with some additional benefits and charges for using this service. There are separate permissions for the use of a KMS key that provides added protection against unauthorized access of your objects in Amazon S3. SSE-KMS also provides you with an audit trail that shows when your KMS key was used and by whom.
+server-side encryption is the encryption of data at its destination by the application or service that receives it. Amazon S3 encrypts your data at the object level as it writes it to disks in its data centers and decrypts it for you when you access it. Hence, server-side encryption is not the right answer for the current scenario. So both these options are incorrect.
+Encryption is enabled by default for all the objects written to Amazon S3. Additional configuration is not required - This statement is incorrect as encryption is not enabled by default on S3. You can protect data in transit using Secure Socket Layer/Transport Layer Security (SSL/TLS) or client-side encryption. Data at rest on Amazon S3 can be encrypted using server-side encryption or client-side encryption.
+References:
+https://docs.aws.amazon.com/en_us/AmazonS3/latest/userguide/UsingClientSideEncryption.html
+https://docs.aws.amazon.com/en_us/AmazonS3/latest/userguide/serv-side-encryption.html</t>
+  </si>
+  <si>
+    <t>A financial services company wants to ensure that its AWS account activity meets the governance, compliance and auditing norms. As a Cloud Practitioner, which AWS service would you recommend for this use-case?</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>CloudTrail</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trusted Advisor </t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option:
+CloudTrail
+You can use CloudTrail to log, monitor and retain account activity related to actions across your AWS infrastructure. CloudTrail provides an event history of your AWS account activity, including actions taken through the AWS Management Console, AWS SDKs, command-line tools, and other AWS services.
+How CloudTrail Works:  via - https://aws.amazon.com/cloudtrail/
+Incorrect options:
+Config - AWS Config is a service that enables you to assess, audit, and evaluate the configurations of your AWS resources. Config continuously monitors and records your AWS resource configurations and allows you to automate the evaluation of recorded configurations against desired configurations.
+CloudWatch - Amazon CloudWatch is a monitoring and observability service built for DevOps engineers, developers, site reliability engineers (SREs), and IT managers. CloudWatch provides data and actionable insights to monitor applications, respond to system-wide performance changes, optimize resource utilization, and get a unified view of operational health. This is an excellent service for building Resilient systems.
+Trusted Advisor - AWS Trusted Advisor is an online tool that provides you real-time guidance to help you provision your resources following AWS best practices on cost optimization, security, fault tolerance, service limits and performance improvement.
+Exam Alert:
+You may see use-cases asking you to select one of CloudWatch vs CloudTrail vs Config. Just remember this thumb rule -
+Think resource performance monitoring, events, and alerts; think CloudWatch.
+Think account-specific activity and audit; think CloudTrail.
+Think resource-specific change history, audit, and compliance; think Config.
+Reference:
+https://aws.amazon.com/cloudtrail/</t>
+  </si>
+  <si>
+    <t>A company wants to identify the optimal AWS resource configuration for its workloads so that the company can reduce costs and increase workload performance. Which of the following services can be used to meet this requirement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Compute Optimizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Cost Explorer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Budgets </t>
+  </si>
+  <si>
+    <t>Explanation
+Correct option: AWS Compute Optimizer - AWS Compute Optimizer recommends optimal AWS resources for your workloads to reduce costs and improve performance by using machine learning to analyze historical utilization metrics. Over-provisioning resources can lead to unnecessary infrastructure costs, and under-provisioning resources can lead to poor application performance. Compute Optimizer helps you choose optimal configurations for three types of AWS resources: Amazon EC2 instances, Amazon EBS volumes, and AWS Lambda functions, based on your utilization data.
+Compute Optimizer recommends up to 3 options from 140+ EC2 instance types, as well as a wide range of EBS volume and Lambda function configuration options, to right-size your workloads. Compute Optimizer also projects what the CPU utilization, memory utilization, and run time of your workload would have been on recommended AWS resource options. This helps you understand how your workload would have performed on the recommended options before implementing the recommendations.
+How Compute Optimizer works:  via - https://aws.amazon.com/compute-optimizer/
+Incorrect options:
+AWS Systems Manager - AWS Systems Manager is the operations hub for AWS. Systems Manager provides a unified user interface so you can track and resolve operational issues across your AWS applications and resources from a central place. With Systems Manager, you can automate operational tasks for Amazon EC2 instances or Amazon RDS instances. You can also group resources by application, view operational data for monitoring and troubleshooting, implement pre-approved change workflows, and audit operational changes for your groups of resources. Systems Manager simplifies resource and application management, shortens the time to detect and resolve operational problems, and makes it easier to operate and manage your infrastructure at scale. Systems Manager cannot be used to identify the optimal resource configuration for workloads running on AWS.
+AWS Budgets - AWS Budgets allows you to set custom budgets to track your cost and usage from the simplest to the most complex use cases. With AWS Budgets, you can choose to be alerted by email or SNS notification when actual or forecasted cost and usage exceed your budget threshold, or when your actual RI and Savings Plans' utilization or coverage drops below your desired threshold. With AWS Budget Actions, you can also configure specific actions to respond to cost and usage status in your accounts, so that if your cost or usage exceeds or is forecasted to exceed your threshold, actions can be executed automatically or with your approval to reduce unintentional over-spending.
+AWS Cost Explorer - AWS Cost Explorer has an easy-to-use interface that lets you visualize, understand, and manage your AWS costs and usage over time. Cost Explorer Resource Rightsizing Recommendations and Compute Optimizer use the same recommendation engine. The Compute Optimizer recommendation engine delivers recommendations to help customers identify optimal EC2 instance types for their workloads. The Cost Explorer console and API surface a subset of these recommendations that may lead to cost savings, and augments them with customer-specific cost and savings information (e.g. billing information, available credits, RI, and Savings Plans) to help Cost Management owners quickly identify savings opportunities through infrastructure rightsizing. Compute Optimizer console and its API delivers all recommendations regardless of the cost implications.
+Reference:
+https://aws.amazon.com/compute-optimizer/</t>
   </si>
 </sst>
 </file>
@@ -230,7 +719,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -518,7 +1007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,8 +1147,419 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="G6" s="4"/>
+    <row r="6" spans="1:7" ht="409.6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="290.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.6">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.6">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.6">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="409.6">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.6">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.6">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.6">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="351">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.6">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="409.6">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.6">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="409.6">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.6">
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="409.6">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.6">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
